--- a/Raw_data/Stoich/Stoich_Totals_Round_1.xlsx
+++ b/Raw_data/Stoich/Stoich_Totals_Round_1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +420,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Percent_Phos</t>
+          <t>Percent_Phos_</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -600,7 +600,7 @@
         <v>1.986</v>
       </c>
       <c r="M5">
-        <v>0.3141993957703927</v>
+        <v>0.03141993957703928</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="O5">
-        <v>143.1348577208798</v>
+        <v>1431.348577208798</v>
       </c>
       <c r="P5">
-        <v>45.03842313121527</v>
+        <v>450.3842313121526</v>
       </c>
     </row>
     <row r="6">
@@ -664,7 +664,7 @@
         <v>1.824</v>
       </c>
       <c r="M6">
-        <v>0.2731496710526315</v>
+        <v>0.02731496710526316</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="O6">
-        <v>176.2453689819737</v>
+        <v>1762.453689819736</v>
       </c>
       <c r="P6">
-        <v>54.59003812671872</v>
+        <v>545.900381267187</v>
       </c>
     </row>
     <row r="7">
@@ -728,7 +728,7 @@
         <v>1.975</v>
       </c>
       <c r="M7">
-        <v>0.4314683544303797</v>
+        <v>0.04314683544303798</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="O7">
-        <v>105.4200504529337</v>
+        <v>1054.200504529336</v>
       </c>
       <c r="P7">
-        <v>28.86888556629637</v>
+        <v>288.6888556629636</v>
       </c>
     </row>
     <row r="8">
@@ -792,7 +792,7 @@
         <v>1.892</v>
       </c>
       <c r="M8">
-        <v>0.5895348837209303</v>
+        <v>0.05895348837209304</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="O8">
-        <v>76.84173651094619</v>
+        <v>768.4173651094618</v>
       </c>
       <c r="P8">
-        <v>29.65500392411603</v>
+        <v>296.5500392411602</v>
       </c>
     </row>
     <row r="9">
@@ -903,7 +903,7 @@
         <v>1.789</v>
       </c>
       <c r="M10">
-        <v>0.418557853549469</v>
+        <v>0.0418557853549469</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -911,10 +911,10 @@
         </is>
       </c>
       <c r="O10">
-        <v>115.9590791994625</v>
+        <v>1159.590791994625</v>
       </c>
       <c r="P10">
-        <v>31.83826688175794</v>
+        <v>318.3826688175794</v>
       </c>
     </row>
     <row r="11">
@@ -963,6 +963,23 @@
       <c r="K11">
         <v>11.70814525930488</v>
       </c>
+      <c r="L11">
+        <v>1.988</v>
+      </c>
+      <c r="M11">
+        <v>0.01598843058350101</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="O11">
+        <v>3075.27121646699</v>
+      </c>
+      <c r="P11">
+        <v>732.2885881861913</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1010,6 +1027,23 @@
       <c r="K12">
         <v>13.47139077411276</v>
       </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.007979999999999999</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="O12">
+        <v>5187.067697606227</v>
+      </c>
+      <c r="P12">
+        <v>1688.144207282301</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1057,6 +1091,23 @@
       <c r="K13">
         <v>16.42674122878818</v>
       </c>
+      <c r="L13">
+        <v>0.615</v>
+      </c>
+      <c r="M13">
+        <v>-0.07175609756097562</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="O13">
+        <v>-615.5550058259259</v>
+      </c>
+      <c r="P13">
+        <v>-228.9246738206375</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1104,6 +1155,23 @@
       <c r="K14">
         <v>9.923834369312297</v>
       </c>
+      <c r="L14">
+        <v>0.785</v>
+      </c>
+      <c r="M14">
+        <v>0.007070063694267515</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="O14">
+        <v>5943.223866076936</v>
+      </c>
+      <c r="P14">
+        <v>1403.64143782165</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1155,7 +1223,7 @@
         <v>1.988</v>
       </c>
       <c r="M15">
-        <v>0.4253221830985915</v>
+        <v>0.04166911468812877</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1163,10 +1231,10 @@
         </is>
       </c>
       <c r="O15">
-        <v>104.2276854134824</v>
+        <v>1063.865815992605</v>
       </c>
       <c r="P15">
-        <v>30.59495167647455</v>
+        <v>312.2867317011008</v>
       </c>
     </row>
     <row r="16">
@@ -1219,7 +1287,7 @@
         <v>2.173</v>
       </c>
       <c r="M16">
-        <v>0.4675333640128854</v>
+        <v>0.04675333640128854</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1227,10 +1295,10 @@
         </is>
       </c>
       <c r="O16">
-        <v>98.97793058166204</v>
+        <v>989.7793058166204</v>
       </c>
       <c r="P16">
-        <v>33.43289528920502</v>
+        <v>334.3289528920502</v>
       </c>
     </row>
     <row r="17">
@@ -1279,6 +1347,23 @@
       <c r="K17">
         <v>17.57232188941505</v>
       </c>
+      <c r="L17">
+        <v>0.617</v>
+      </c>
+      <c r="M17">
+        <v>-0.1350243111831442</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="O17">
+        <v>-345.0102963059447</v>
+      </c>
+      <c r="P17">
+        <v>-130.1419110043102</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1330,7 +1415,7 @@
         <v>2.027</v>
       </c>
       <c r="M18">
-        <v>0.7426739023186976</v>
+        <v>0.07426739023186973</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1338,10 +1423,10 @@
         </is>
       </c>
       <c r="O18">
-        <v>57.81186659001924</v>
+        <v>578.1186659001925</v>
       </c>
       <c r="P18">
-        <v>13.02422974525624</v>
+        <v>130.2422974525624</v>
       </c>
     </row>
     <row r="19">
@@ -1394,7 +1479,7 @@
         <v>2.072</v>
       </c>
       <c r="M19">
-        <v>0.755719111969112</v>
+        <v>0.0755719111969112</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1402,10 +1487,10 @@
         </is>
       </c>
       <c r="O19">
-        <v>60.21307897885978</v>
+        <v>602.1307897885978</v>
       </c>
       <c r="P19">
-        <v>16.49428580040434</v>
+        <v>164.9428580040434</v>
       </c>
     </row>
     <row r="20">
@@ -1458,7 +1543,7 @@
         <v>1.99</v>
       </c>
       <c r="M20">
-        <v>0.3444346733668341</v>
+        <v>0.03444346733668342</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1466,10 +1551,10 @@
         </is>
       </c>
       <c r="O20">
-        <v>142.9843889026461</v>
+        <v>1429.843889026461</v>
       </c>
       <c r="P20">
-        <v>39.78796046956094</v>
+        <v>397.8796046956093</v>
       </c>
     </row>
     <row r="21">
@@ -1522,7 +1607,7 @@
         <v>1.923</v>
       </c>
       <c r="M21">
-        <v>0.708814352574103</v>
+        <v>0.07088143525741031</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1530,10 +1615,10 @@
         </is>
       </c>
       <c r="O21">
-        <v>67.04186786132263</v>
+        <v>670.4186786132261</v>
       </c>
       <c r="P21">
-        <v>15.95201086288331</v>
+        <v>159.5201086288331</v>
       </c>
     </row>
     <row r="22">
@@ -1586,7 +1671,7 @@
         <v>1.833</v>
       </c>
       <c r="M22">
-        <v>0.4179950900163666</v>
+        <v>0.04089361702127661</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1594,10 +1679,10 @@
         </is>
       </c>
       <c r="O22">
-        <v>114.2431888642385</v>
+        <v>1167.739502920923</v>
       </c>
       <c r="P22">
-        <v>35.22371640471928</v>
+        <v>360.0400644834418</v>
       </c>
     </row>
     <row r="23">
@@ -1697,7 +1782,7 @@
         <v>1.973</v>
       </c>
       <c r="M24">
-        <v>0.5050430816016219</v>
+        <v>0.05050430816016219</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1705,10 +1790,10 @@
         </is>
       </c>
       <c r="O24">
-        <v>86.95094697328382</v>
+        <v>869.5094697328382</v>
       </c>
       <c r="P24">
-        <v>22.0801046544064</v>
+        <v>220.801046544064</v>
       </c>
     </row>
     <row r="25">
@@ -1757,6 +1842,23 @@
       <c r="K25">
         <v>26.99022768295429</v>
       </c>
+      <c r="L25">
+        <v>1.093</v>
+      </c>
+      <c r="M25">
+        <v>-0.005307639524245197</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="O25">
+        <v>-7611.198263305321</v>
+      </c>
+      <c r="P25">
+        <v>-5085.165931044005</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1924,7 +2026,7 @@
         <v>2.5</v>
       </c>
       <c r="M29">
-        <v>1.14309</v>
+        <v>0.114309</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -1957,7 +2059,7 @@
         <v>4.1</v>
       </c>
       <c r="M30">
-        <v>0.4175853658536586</v>
+        <v>0.04175853658536586</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -1990,7 +2092,7 @@
         <v>2.1</v>
       </c>
       <c r="M31">
-        <v>1.049357142857143</v>
+        <v>0.1049357142857142</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2023,7 +2125,7 @@
         <v>2.3</v>
       </c>
       <c r="M32">
-        <v>0.3809347826086957</v>
+        <v>0.03809347826086956</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2056,7 +2158,7 @@
         <v>2.058</v>
       </c>
       <c r="M33">
-        <v>1.428498542274053</v>
+        <v>0.1428498542274052</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2089,7 +2191,7 @@
         <v>2.156</v>
       </c>
       <c r="M34">
-        <v>1.480032467532467</v>
+        <v>0.1480032467532467</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2122,7 +2224,7 @@
         <v>2.178</v>
       </c>
       <c r="M35">
-        <v>1.651446280991735</v>
+        <v>0.1651446280991736</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2155,11 +2257,128 @@
         <v>1.122</v>
       </c>
       <c r="M36">
-        <v>1.521256684491978</v>
+        <v>0.1521256684491978</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
           <t>HFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>euc</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>euc</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="L37">
+        <v>2.2</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>euc</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>bla</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>euc</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>euc</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="L39">
+        <v>2.1</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>euc</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>bla</t>
         </is>
       </c>
     </row>
